--- a/src/Assets/templates/STAGE_PROCESSING_NON_INV_TRAN_TEMPLATE.xlsx
+++ b/src/Assets/templates/STAGE_PROCESSING_NON_INV_TRAN_TEMPLATE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/Inventory_&amp;_Non_Inventory_TRN_TYPE_Drop_Down/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\26-08-2022 screens\src\Assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7793EFD-183D-6742-B5A5-1CB9AC1CC21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11040" xr2:uid="{77677CB9-8C3B-4D92-B167-841BDF0320DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,19 +539,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFA8BC-65AA-42FA-9AB5-45E64D2A2752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="23.5" style="2"/>
+    <col min="1" max="12" width="23.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +594,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid TRN_TYPE !" error="Invalid TRN_TYPE. Please select a valid TRN_TYPE from the list." promptTitle="Non-Invt Transaction" prompt="Please select a TRN_TYPE from the list" xr:uid="{D3F34087-F04F-4EBD-91B1-854C5A8F9A51}">
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid TRN_TYPE !" error="Invalid TRN_TYPE. Please select a valid TRN_TYPE from the list." promptTitle="Non-Invt Transaction" prompt="Please select a TRN_TYPE from the list">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$20</xm:f>
           </x14:formula1>
@@ -608,114 +607,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E54CA6-4E50-439B-AE8A-AF0C7FF421E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
